--- a/menarche_2018.xlsx
+++ b/menarche_2018.xlsx
@@ -352,7 +352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -419,7 +421,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -793,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -804,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -815,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -826,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -837,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -958,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -969,7 +971,7 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1123,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1134,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
